--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3554.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3554.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.445726253761374</v>
+        <v>0.7886165380477905</v>
       </c>
       <c r="B1">
-        <v>1.564790261028046</v>
+        <v>1.001588940620422</v>
       </c>
       <c r="C1">
-        <v>1.821094986984294</v>
+        <v>1.478047132492065</v>
       </c>
       <c r="D1">
-        <v>3.043141128920592</v>
+        <v>2.203947067260742</v>
       </c>
       <c r="E1">
-        <v>4.634761710278775</v>
+        <v>1.625526785850525</v>
       </c>
     </row>
   </sheetData>
